--- a/Grades, Backlogs & Estimation Reports/Backlogs/Sprint5_Backlog_Template.xlsx
+++ b/Grades, Backlogs & Estimation Reports/Backlogs/Sprint5_Backlog_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Data/team-xxx/Grades, Backlogs &amp; Estimation Reports/Backlogs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E383F-B706-AC41-BE94-409C8C2BCBAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9AB09-C238-3B44-B6B2-CB733C4D15CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>User story</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>As a consultatnt I should be able to accept meeting arrangement or withdraw from the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team velocity in Sprint 1= 99/ 3 days= 33 Story Point/day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team velocity in Sprint 2=83/2 days=  41.5 Story Point/day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed up ratio= 41.5/33= 1.26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team velocity in Sprint 4=  40/4 days= 10 story point/ day </t>
+  </si>
+  <si>
+    <t>Estimate Team velocity of Sprint 5= 10* .26= 12.6 story point/day</t>
   </si>
 </sst>
 </file>
@@ -198,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -216,6 +231,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +575,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1051,58 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="7"/>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
       <c r="B35" s="2"/>
     </row>
   </sheetData>
